--- a/data/slided/월_환율.xlsx
+++ b/data/slided/월_환율.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C203"/>
+  <dimension ref="A1:C205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,7 +399,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1.080484907894126E-16</v>
+        <v>-2.538388336331687E-16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -410,7 +410,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>-2.676430505792788E-17</v>
+        <v>-1.413799632921098E-16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -421,7 +421,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.775557561562891E-17</v>
+        <v>-2.032517672686159E-16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -432,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>8.128418573148467E-17</v>
+        <v>-2.081668171172169E-16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -443,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>-5.396229098484996E-17</v>
+        <v>-2.078776965378874E-16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -454,7 +454,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>-1.890229044716156E-16</v>
+        <v>-2.711951034110409E-16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -465,7 +465,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>-3.299691868947312E-16</v>
+        <v>-1.452830911130576E-16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -476,7 +476,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>5.495356154255099E-17</v>
+        <v>-9.707223450986883E-17</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>5.501551595240731E-17</v>
+        <v>1.66244333114444E-17</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -498,7 +498,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>8.277109156803623E-17</v>
+        <v>3.223694459523566E-17</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -509,7 +509,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>2.205576990884798E-16</v>
+        <v>9.8879238130678E-17</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -520,7 +520,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>2.701212269735314E-17</v>
+        <v>-4.972873964466847E-17</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -531,7 +531,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.113940289216535E-16</v>
+        <v>-4.85722573273506E-17</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -542,7 +542,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>-1.397691486358456E-16</v>
+        <v>-2.382353573674815E-16</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -553,7 +553,7 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>2.825121089447943E-17</v>
+        <v>-1.838806884535416E-16</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -564,7 +564,7 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>5.551115123125783E-17</v>
+        <v>-1.387778780781446E-17</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -575,7 +575,7 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>-8.524926796228881E-17</v>
+        <v>1.202741610010586E-16</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -586,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.407604191935466E-16</v>
+        <v>-3.23815048849004E-17</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -597,7 +597,7 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>-1.982541115402065E-18</v>
+        <v>-5.782411586589357E-19</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -608,7 +608,7 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>-9.1196891308495E-17</v>
+        <v>5.059610138265688E-17</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -619,7 +619,7 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>8.921435019309294E-17</v>
+        <v>1.280442765705381E-16</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -630,7 +630,7 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>3.072938728873201E-17</v>
+        <v>3.671831357484242E-17</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -641,7 +641,7 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>3.097720492815727E-17</v>
+        <v>-5.522203065192836E-17</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -652,7 +652,7 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>-6.418476861114186E-17</v>
+        <v>-1.481742969063523E-16</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -663,7 +663,7 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>-3.246411076470882E-17</v>
+        <v>-1.019150042136374E-16</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -674,7 +674,7 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>7.88060093372321E-17</v>
+        <v>-5.551115123125783E-17</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -685,7 +685,7 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>4.807662204850008E-17</v>
+        <v>9.830099697201907E-18</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -696,7 +696,7 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>1.268826313857322E-16</v>
+        <v>-1.734723475976807E-17</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -707,7 +707,7 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>6.269786277459032E-17</v>
+        <v>3.122502256758253E-17</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -718,7 +718,7 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>-1.536469364436601E-17</v>
+        <v>-1.966019939440381E-17</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -729,7 +729,7 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>-1.130048435779177E-16</v>
+        <v>-2.370788750501636E-17</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -740,7 +740,7 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>-1.298564430588353E-16</v>
+        <v>-2.185751579730777E-16</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -751,7 +751,7 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>-1.595945597898663E-16</v>
+        <v>-3.989863994746656E-17</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -762,7 +762,7 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>1.318389841742373E-16</v>
+        <v>-6.129356281784719E-17</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -773,7 +773,7 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>3.370319896183511E-17</v>
+        <v>1.355975517055204E-16</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -784,7 +784,7 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>3.469446951953614E-17</v>
+        <v>9.916835871000747E-17</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -795,7 +795,7 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>6.195440985631454E-20</v>
+        <v>1.491862189340054E-16</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -806,7 +806,7 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>1.700029006457271E-16</v>
+        <v>1.796884400532643E-16</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -817,7 +817,7 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>1.02224776262919E-16</v>
+        <v>2.49944740830325E-16</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -828,7 +828,7 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>-1.239088197126291E-19</v>
+        <v>1.907111621402002E-16</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -839,7 +839,7 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>-1.784287003861859E-17</v>
+        <v>2.038300084272748E-17</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -850,7 +850,7 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>-1.784287003861859E-17</v>
+        <v>3.006854025026465E-17</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -861,7 +861,7 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>-6.926503021935966E-17</v>
+        <v>6.071532165918825E-17</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -872,7 +872,7 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>3.450667021465919E-17</v>
+        <v>1.833024472948826E-16</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -883,7 +883,7 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>-6.901721257993439E-17</v>
+        <v>1.323449451880639E-16</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -894,7 +894,7 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>8.673617379884035E-17</v>
+        <v>1.627748861624904E-16</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -905,7 +905,7 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>-1.74711435794807E-17</v>
+        <v>-4.04768811061255E-17</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -916,7 +916,7 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>-5.228952191872947E-17</v>
+        <v>-1.119619443453364E-16</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -927,7 +927,7 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>-5.278515719757998E-17</v>
+        <v>-2.039745687169396E-16</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -938,7 +938,7 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>-1.050746791163095E-16</v>
+        <v>-2.148165904417946E-16</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -949,7 +949,7 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>-1.226697315155028E-16</v>
+        <v>-7.112366251504909E-17</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -960,7 +960,7 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>-1.234131844337786E-16</v>
+        <v>-7.054542135639015E-17</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -971,7 +971,7 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>-1.588820840765186E-16</v>
+        <v>-2.012279232133096E-16</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -982,7 +982,7 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>-8.847089727481716E-17</v>
+        <v>6.129356281784719E-17</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -993,7 +993,7 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>-1.734723475976807E-17</v>
+        <v>-2.312964634635743E-18</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1004,7 +1004,7 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>1.734723475976807E-17</v>
+        <v>-2.891205793294679E-18</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>1.030921380009074E-16</v>
+        <v>-5.898059818321144E-17</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1026,7 +1026,7 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>-1.586032892321652E-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1037,7 +1037,7 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>-1.367953369627425E-16</v>
+        <v>-1.896631000401309E-16</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1048,7 +1048,7 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <v>-3.172065784643304E-17</v>
+        <v>5.551115123125783E-17</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1059,7 +1059,7 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>3.271192840413408E-17</v>
+        <v>6.938893903907228E-18</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1070,7 +1070,7 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>-4.361590453884543E-17</v>
+        <v>4.85722573273506E-17</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1081,7 +1081,7 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>-9.516197353929913E-17</v>
+        <v>1.110223024625157E-16</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1092,7 +1092,7 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <v>-1.189524669241239E-17</v>
+        <v>3.469446951953614E-17</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1103,7 +1103,7 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>1.586032892321652E-17</v>
+        <v>4.192248400277284E-17</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1114,7 +1114,7 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>-8.227545628918571E-17</v>
+        <v>-5.117434254131581E-17</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1125,7 +1125,7 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>-5.551115123125783E-17</v>
+        <v>4.481368979606751E-17</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1136,7 +1136,7 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>7.137148015447435E-17</v>
+        <v>-3.180326372624146E-17</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1147,7 +1147,7 @@
         <v>68</v>
       </c>
       <c r="C70">
-        <v>2.973811673103098E-18</v>
+        <v>1.127570259384925E-16</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1158,7 +1158,7 @@
         <v>69</v>
       </c>
       <c r="C71">
-        <v>-4.55984456542475E-17</v>
+        <v>9.136210306811184E-17</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1169,7 +1169,7 @@
         <v>70</v>
       </c>
       <c r="C72">
-        <v>-7.137148015447435E-17</v>
+        <v>-2.42861286636753E-17</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1180,7 +1180,7 @@
         <v>71</v>
       </c>
       <c r="C73">
-        <v>-2.478176394252582E-17</v>
+        <v>1.399343603954624E-16</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1191,7 +1191,7 @@
         <v>72</v>
       </c>
       <c r="C74">
-        <v>7.335402126987641E-17</v>
+        <v>1.61907524424502E-17</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1202,7 +1202,7 @@
         <v>73</v>
       </c>
       <c r="C75">
-        <v>7.038020959677331E-17</v>
+        <v>1.757853122323164E-16</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1213,7 +1213,7 @@
         <v>74</v>
       </c>
       <c r="C76">
-        <v>7.533656238527848E-17</v>
+        <v>6.187180397650612E-17</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1224,7 +1224,7 @@
         <v>75</v>
       </c>
       <c r="C77">
-        <v>1.308477136165363E-16</v>
+        <v>2.382353573674815E-16</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1235,7 +1235,7 @@
         <v>76</v>
       </c>
       <c r="C78">
-        <v>1.576120186744642E-16</v>
+        <v>2.717733445696998E-16</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1246,7 +1246,7 @@
         <v>77</v>
       </c>
       <c r="C79">
-        <v>-1.070572202317115E-16</v>
+        <v>8.384496800554568E-17</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1257,7 +1257,7 @@
         <v>78</v>
       </c>
       <c r="C80">
-        <v>-1.080484907894126E-16</v>
+        <v>-6.3028286293824E-17</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1268,7 +1268,7 @@
         <v>79</v>
       </c>
       <c r="C81">
-        <v>2.676430505792788E-17</v>
+        <v>-1.123233450694983E-16</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1279,7 +1279,7 @@
         <v>80</v>
       </c>
       <c r="C82">
-        <v>-2.825121089447943E-17</v>
+        <v>-1.144917494144693E-16</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1290,7 +1290,7 @@
         <v>81</v>
       </c>
       <c r="C83">
-        <v>-5.650242178895886E-17</v>
+        <v>-3.229476871110156E-16</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1301,7 +1301,7 @@
         <v>82</v>
       </c>
       <c r="C84">
-        <v>-8.524926796228881E-17</v>
+        <v>-1.474514954580286E-16</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1312,7 +1312,7 @@
         <v>83</v>
       </c>
       <c r="C85">
-        <v>-5.650242178895886E-17</v>
+        <v>-4.958417935500373E-17</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1323,7 +1323,7 @@
         <v>84</v>
       </c>
       <c r="C86">
-        <v>2.651648741850262E-17</v>
+        <v>6.649773324577761E-17</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1334,7 +1334,7 @@
         <v>85</v>
       </c>
       <c r="C87">
-        <v>-4.956352788505163E-19</v>
+        <v>-1.139135082558103E-16</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1345,7 +1345,7 @@
         <v>86</v>
       </c>
       <c r="C88">
-        <v>1.947846645882529E-16</v>
+        <v>9.656627349604226E-17</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1356,7 +1356,7 @@
         <v>87</v>
       </c>
       <c r="C89">
-        <v>2.775557561562891E-17</v>
+        <v>1.734723475976807E-18</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1367,7 +1367,7 @@
         <v>88</v>
       </c>
       <c r="C90">
-        <v>-1.643030949389461E-16</v>
+        <v>-1.653769713764556E-16</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1378,7 +1378,7 @@
         <v>89</v>
       </c>
       <c r="C91">
-        <v>2.775557561562891E-17</v>
+        <v>-8.326672684688674E-17</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1389,7 +1389,7 @@
         <v>90</v>
       </c>
       <c r="C92">
-        <v>-1.120135730202167E-16</v>
+        <v>-8.442320916420461E-17</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1400,7 +1400,7 @@
         <v>91</v>
       </c>
       <c r="C93">
-        <v>-5.650242178895886E-17</v>
+        <v>-3.295974604355933E-17</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1411,7 +1411,7 @@
         <v>92</v>
       </c>
       <c r="C94">
-        <v>1.442298661455002E-16</v>
+        <v>-8.384496800554568E-17</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1422,7 +1422,7 @@
         <v>93</v>
       </c>
       <c r="C95">
-        <v>1.159786552510208E-16</v>
+        <v>-6.707597440443654E-17</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1433,7 +1433,7 @@
         <v>94</v>
       </c>
       <c r="C96">
-        <v>2.973811673103098E-17</v>
+        <v>1.629917265969875E-17</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1444,7 +1444,7 @@
         <v>95</v>
       </c>
       <c r="C97">
-        <v>-1.486905836551549E-18</v>
+        <v>2.0643209364124E-16</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1455,7 +1455,7 @@
         <v>96</v>
       </c>
       <c r="C98">
-        <v>1.774374298284849E-16</v>
+        <v>8.384496800554568E-17</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1466,7 +1466,7 @@
         <v>97</v>
       </c>
       <c r="C99">
-        <v>-6.021968638033773E-17</v>
+        <v>-1.199850404217292E-16</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1477,7 +1477,7 @@
         <v>98</v>
       </c>
       <c r="C100">
-        <v>5.74936923466599E-17</v>
+        <v>6.938893903907228E-17</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1488,7 +1488,7 @@
         <v>99</v>
       </c>
       <c r="C101">
-        <v>1.794199709438869E-16</v>
+        <v>-1.590163186312073E-17</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1499,7 +1499,7 @@
         <v>100</v>
       </c>
       <c r="C102">
-        <v>1.169699258087219E-16</v>
+        <v>-1.850371707708594E-17</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1510,7 +1510,7 @@
         <v>101</v>
       </c>
       <c r="C103">
-        <v>-9.912705577010326E-19</v>
+        <v>-1.023486850826316E-16</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1521,7 +1521,7 @@
         <v>102</v>
       </c>
       <c r="C104">
-        <v>1.184568316452734E-16</v>
+        <v>-5.290906601729262E-17</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1532,7 +1532,7 @@
         <v>103</v>
       </c>
       <c r="C105">
-        <v>2.949029909160572E-17</v>
+        <v>8.319444670205438E-17</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1543,7 +1543,7 @@
         <v>104</v>
       </c>
       <c r="C106">
-        <v>-1.146156582341819E-16</v>
+        <v>-3.28151857538946E-17</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1554,7 +1554,7 @@
         <v>105</v>
       </c>
       <c r="C107">
-        <v>-5.740850503310746E-17</v>
+        <v>3.353798720221827E-17</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1565,7 +1565,7 @@
         <v>106</v>
       </c>
       <c r="C108">
-        <v>-5.74936923466599E-17</v>
+        <v>4.915049848600953E-17</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1576,7 +1576,7 @@
         <v>107</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>-5.030698080332741E-17</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1587,7 +1587,7 @@
         <v>108</v>
       </c>
       <c r="C110">
-        <v>-7.434529182757744E-19</v>
+        <v>-1.734723475976807E-17</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1598,7 +1598,7 @@
         <v>109</v>
       </c>
       <c r="C111">
-        <v>-8.562099442142669E-17</v>
+        <v>-8.413408858487514E-17</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1609,7 +1609,7 @@
         <v>110</v>
       </c>
       <c r="C112">
-        <v>5.74936923466599E-17</v>
+        <v>-1.850371707708594E-17</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1620,7 +1620,7 @@
         <v>111</v>
       </c>
       <c r="C113">
-        <v>1.149873846933198E-16</v>
+        <v>-8.323058677447055E-17</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1631,7 +1631,7 @@
         <v>112</v>
       </c>
       <c r="C114">
-        <v>1.982541115402065E-18</v>
+        <v>-1.5757071573456E-17</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1642,7 +1642,7 @@
         <v>113</v>
       </c>
       <c r="C115">
-        <v>-6.145877457746403E-17</v>
+        <v>-6.852157730108388E-17</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1653,7 +1653,7 @@
         <v>114</v>
       </c>
       <c r="C116">
-        <v>-5.947623346206196E-17</v>
+        <v>-6.823245672175442E-17</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1664,7 +1664,7 @@
         <v>115</v>
       </c>
       <c r="C117">
-        <v>-4.956352788505163E-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1675,7 +1675,7 @@
         <v>116</v>
       </c>
       <c r="C118">
-        <v>-5.947623346206196E-17</v>
+        <v>1.301042606982605E-18</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1686,7 +1686,7 @@
         <v>117</v>
       </c>
       <c r="C119">
-        <v>-8.946216783251819E-17</v>
+        <v>-1.52655665885959E-16</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1697,7 +1697,7 @@
         <v>118</v>
       </c>
       <c r="C120">
-        <v>2.973811673103098E-17</v>
+        <v>-1.549686305205948E-16</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1708,7 +1708,7 @@
         <v>119</v>
       </c>
       <c r="C121">
-        <v>-1.169699258087219E-16</v>
+        <v>-1.046616497172674E-16</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1719,7 +1719,7 @@
         <v>120</v>
       </c>
       <c r="C122">
-        <v>2.973811673103098E-17</v>
+        <v>-1.017704439239727E-16</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1730,7 +1730,7 @@
         <v>121</v>
       </c>
       <c r="C123">
-        <v>2.862293735361732E-17</v>
+        <v>6.938893903907228E-17</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1741,7 +1741,7 @@
         <v>122</v>
       </c>
       <c r="C124">
-        <v>5.74936923466599E-17</v>
+        <v>-6.996718019773122E-17</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1752,7 +1752,7 @@
         <v>123</v>
       </c>
       <c r="C125">
-        <v>8.82230796353919E-17</v>
+        <v>1.581489568932189E-16</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1763,7 +1763,7 @@
         <v>124</v>
       </c>
       <c r="C126">
-        <v>2.874684617332995E-17</v>
+        <v>3.411622836087721E-17</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1774,7 +1774,7 @@
         <v>125</v>
       </c>
       <c r="C127">
-        <v>-2.874684617332995E-17</v>
+        <v>-8.095376221225099E-17</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1785,7 +1785,7 @@
         <v>126</v>
       </c>
       <c r="C128">
-        <v>5.997186874091247E-17</v>
+        <v>4.510281037539698E-17</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1796,7 +1796,7 @@
         <v>127</v>
       </c>
       <c r="C129">
-        <v>6.108704811832614E-17</v>
+        <v>8.26884856882278E-17</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1807,7 +1807,7 @@
         <v>128</v>
       </c>
       <c r="C130">
-        <v>3.057062911347521E-17</v>
+        <v>8.297760626755728E-17</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1818,7 +1818,7 @@
         <v>129</v>
       </c>
       <c r="C131">
-        <v>-6.145877457746403E-17</v>
+        <v>8.066464163292153E-17</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1829,7 +1829,7 @@
         <v>130</v>
       </c>
       <c r="C132">
-        <v>1.090397613471136E-16</v>
+        <v>-8.962737959213504E-18</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1840,7 +1840,7 @@
         <v>131</v>
       </c>
       <c r="C133">
-        <v>4.658971621194853E-17</v>
+        <v>8.673617379884035E-18</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1851,7 +1851,7 @@
         <v>132</v>
       </c>
       <c r="C134">
-        <v>-4.758098676964956E-17</v>
+        <v>2.833381677428785E-17</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1862,7 +1862,7 @@
         <v>133</v>
       </c>
       <c r="C135">
-        <v>1.586032892321652E-17</v>
+        <v>6.418476861114186E-17</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1873,7 +1873,7 @@
         <v>134</v>
       </c>
       <c r="C136">
-        <v>-7.88060093372321E-17</v>
+        <v>2.833381677428785E-17</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1884,7 +1884,7 @@
         <v>135</v>
       </c>
       <c r="C137">
-        <v>7.831037405838158E-17</v>
+        <v>9.251858538542971E-18</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1895,7 +1895,7 @@
         <v>136</v>
       </c>
       <c r="C138">
-        <v>7.731910350068054E-17</v>
+        <v>2.388135985261404E-16</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1906,7 +1906,7 @@
         <v>137</v>
       </c>
       <c r="C139">
-        <v>9.218816186619604E-17</v>
+        <v>2.116362640691705E-16</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1917,7 +1917,7 @@
         <v>138</v>
       </c>
       <c r="C140">
-        <v>8.970998547194345E-17</v>
+        <v>1.676899360110913E-17</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1928,7 +1928,7 @@
         <v>139</v>
       </c>
       <c r="C141">
-        <v>-2.126275346268715E-16</v>
+        <v>-1.966019939440381E-17</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1939,7 +1939,7 @@
         <v>140</v>
       </c>
       <c r="C142">
-        <v>2.924248145218046E-17</v>
+        <v>1.179611963664229E-16</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1950,7 +1950,7 @@
         <v>141</v>
       </c>
       <c r="C143">
-        <v>8.921435019309294E-17</v>
+        <v>8.557969148152249E-17</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1961,7 +1961,7 @@
         <v>142</v>
       </c>
       <c r="C144">
-        <v>8.871871491424243E-17</v>
+        <v>4.98732999343332E-17</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1972,7 +1972,7 @@
         <v>143</v>
       </c>
       <c r="C145">
-        <v>-2.949029909160572E-17</v>
+        <v>-1.590163186312073E-17</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1983,7 +1983,7 @@
         <v>144</v>
       </c>
       <c r="C146">
-        <v>5.947623346206196E-17</v>
+        <v>6.649773324577761E-17</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1994,7 +1994,7 @@
         <v>145</v>
       </c>
       <c r="C147">
-        <v>-9.912705577010326E-19</v>
+        <v>-9.772275581336014E-17</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2005,7 +2005,7 @@
         <v>146</v>
       </c>
       <c r="C148">
-        <v>-1.139961141356187E-16</v>
+        <v>-1.815677238189058E-16</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2016,7 +2016,7 @@
         <v>147</v>
       </c>
       <c r="C149">
-        <v>2.921150424725231E-17</v>
+        <v>-1.152145508627929E-16</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2027,7 +2027,7 @@
         <v>148</v>
       </c>
       <c r="C150">
-        <v>-8.512535914257617E-17</v>
+        <v>-1.642204890591377E-16</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2038,7 +2038,7 @@
         <v>149</v>
       </c>
       <c r="C151">
-        <v>-1.120135730202167E-16</v>
+        <v>-9.71445146547012E-17</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2049,7 +2049,7 @@
         <v>150</v>
       </c>
       <c r="C152">
-        <v>-5.600678651010834E-17</v>
+        <v>1.647987302177967E-17</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2060,7 +2060,7 @@
         <v>151</v>
       </c>
       <c r="C153">
-        <v>-8.326672684688674E-17</v>
+        <v>-9.656627349604226E-17</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2071,7 +2071,7 @@
         <v>152</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>8.037552105359207E-17</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2082,7 +2082,7 @@
         <v>153</v>
       </c>
       <c r="C155">
-        <v>8.425799740458777E-17</v>
+        <v>8.153200337090993E-17</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2093,7 +2093,7 @@
         <v>154</v>
       </c>
       <c r="C156">
-        <v>5.526333359183257E-17</v>
+        <v>1.807003620809174E-16</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2104,7 +2104,7 @@
         <v>155</v>
       </c>
       <c r="C157">
-        <v>-5.600678651010834E-17</v>
+        <v>-8.26884856882278E-17</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2115,7 +2115,7 @@
         <v>156</v>
       </c>
       <c r="C158">
-        <v>-8.326672684688674E-17</v>
+        <v>-1.324172253328963E-16</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2126,7 +2126,7 @@
         <v>157</v>
       </c>
       <c r="C159">
-        <v>-3.072938728873201E-17</v>
+        <v>1.590163186312073E-18</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2137,7 +2137,7 @@
         <v>158</v>
       </c>
       <c r="C160">
-        <v>-2.973811673103098E-17</v>
+        <v>-2.638225286381394E-16</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2148,7 +2148,7 @@
         <v>159</v>
       </c>
       <c r="C161">
-        <v>6.195440985631454E-19</v>
+        <v>-2.318747046222332E-16</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2159,7 +2159,7 @@
         <v>160</v>
       </c>
       <c r="C162">
-        <v>8.624053851998984E-17</v>
+        <v>-1.156482317317871E-16</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2170,7 +2170,7 @@
         <v>161</v>
       </c>
       <c r="C163">
-        <v>-5.451988067355679E-17</v>
+        <v>6.707597440443654E-17</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2181,7 +2181,7 @@
         <v>162</v>
       </c>
       <c r="C164">
-        <v>1.704985359245776E-16</v>
+        <v>4.972873964466847E-17</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2192,7 +2192,7 @@
         <v>163</v>
       </c>
       <c r="C165">
-        <v>-2.750775797620366E-17</v>
+        <v>-3.353798720221827E-17</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2203,7 +2203,7 @@
         <v>164</v>
       </c>
       <c r="C166">
-        <v>-2.260096871558354E-16</v>
+        <v>3.411622836087721E-17</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2214,7 +2214,7 @@
         <v>165</v>
       </c>
       <c r="C167">
-        <v>1.122613906596419E-16</v>
+        <v>8.189340409507177E-17</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2225,7 +2225,7 @@
         <v>166</v>
       </c>
       <c r="C168">
-        <v>-1.982541115402065E-18</v>
+        <v>1.835915678742121E-16</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2236,7 +2236,7 @@
         <v>167</v>
       </c>
       <c r="C169">
-        <v>8.605467529042089E-17</v>
+        <v>1.011922027653138E-16</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2247,7 +2247,7 @@
         <v>168</v>
       </c>
       <c r="C170">
-        <v>-1.149873846933198E-16</v>
+        <v>-5.088522196198634E-17</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2258,7 +2258,7 @@
         <v>169</v>
       </c>
       <c r="C171">
-        <v>-2.892496510166685E-17</v>
+        <v>-1.202741610010586E-16</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2269,7 +2269,7 @@
         <v>170</v>
       </c>
       <c r="C172">
-        <v>5.74936923466599E-17</v>
+        <v>-1.61907524424502E-17</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2280,7 +2280,7 @@
         <v>171</v>
       </c>
       <c r="C173">
-        <v>-8.624053851998984E-17</v>
+        <v>1.734723475976807E-17</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2291,7 +2291,7 @@
         <v>172</v>
       </c>
       <c r="C174">
-        <v>2.319573105020416E-16</v>
+        <v>2.599194008171916E-16</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2302,7 +2302,7 @@
         <v>173</v>
       </c>
       <c r="C175">
-        <v>2.329485810597427E-16</v>
+        <v>7.025630077706069E-17</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2313,7 +2313,7 @@
         <v>174</v>
       </c>
       <c r="C176">
-        <v>-8.921435019309294E-17</v>
+        <v>-1.043725291379379E-16</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2324,7 +2324,7 @@
         <v>175</v>
       </c>
       <c r="C177">
-        <v>-8.624053851998984E-17</v>
+        <v>-1.647987302177967E-17</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2335,7 +2335,7 @@
         <v>176</v>
       </c>
       <c r="C178">
-        <v>1.50673124770557E-16</v>
+        <v>-1.046616497172674E-16</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2346,7 +2346,7 @@
         <v>177</v>
       </c>
       <c r="C179">
-        <v>2.478176394252581E-19</v>
+        <v>-1.763635533909754E-17</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2357,7 +2357,7 @@
         <v>178</v>
       </c>
       <c r="C180">
-        <v>1.209969624493823E-16</v>
+        <v>5.088522196198634E-17</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2368,7 +2368,7 @@
         <v>179</v>
       </c>
       <c r="C181">
-        <v>-9.912705577010326E-19</v>
+        <v>5.290906601729262E-17</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2379,7 +2379,7 @@
         <v>180</v>
       </c>
       <c r="C182">
-        <v>1.496818542128559E-16</v>
+        <v>-1.408017221334509E-16</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2390,7 +2390,7 @@
         <v>181</v>
       </c>
       <c r="C183">
-        <v>2.924248145218046E-17</v>
+        <v>-1.535230276239474E-16</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2401,7 +2401,7 @@
         <v>182</v>
       </c>
       <c r="C184">
-        <v>8.921435019309294E-17</v>
+        <v>-5.059610138265688E-17</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2412,7 +2412,7 @@
         <v>183</v>
       </c>
       <c r="C185">
-        <v>2.349311221751447E-16</v>
+        <v>-8.529057090219301E-17</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2423,7 +2423,7 @@
         <v>184</v>
       </c>
       <c r="C186">
-        <v>1.168460169890092E-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2434,7 +2434,7 @@
         <v>185</v>
       </c>
       <c r="C187">
-        <v>1.239088197126291E-19</v>
+        <v>-5.030698080332741E-17</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2445,7 +2445,7 @@
         <v>186</v>
       </c>
       <c r="C188">
-        <v>1.162264728904461E-16</v>
+        <v>3.411622836087721E-17</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2456,7 +2456,7 @@
         <v>187</v>
       </c>
       <c r="C189">
-        <v>8.747962671711613E-17</v>
+        <v>-8.26884856882278E-17</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2467,7 +2467,7 @@
         <v>188</v>
       </c>
       <c r="C190">
-        <v>5.823714526493566E-17</v>
+        <v>-3.353798720221827E-17</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2478,7 +2478,7 @@
         <v>189</v>
       </c>
       <c r="C191">
-        <v>-2.874684617332995E-17</v>
+        <v>-1.312607430155784E-16</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2489,7 +2489,7 @@
         <v>190</v>
       </c>
       <c r="C192">
-        <v>-9.912705577010326E-19</v>
+        <v>-1.298874202637634E-16</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2500,7 +2500,7 @@
         <v>191</v>
       </c>
       <c r="C193">
-        <v>-1.417516897512477E-16</v>
+        <v>-1.335737076502141E-16</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2511,7 +2511,7 @@
         <v>192</v>
       </c>
       <c r="C194">
-        <v>8.475363268343828E-17</v>
+        <v>-1.148531501386311E-16</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2522,7 +2522,7 @@
         <v>193</v>
       </c>
       <c r="C195">
-        <v>1.942890293094024E-16</v>
+        <v>2.417048043194351E-16</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2533,7 +2533,7 @@
         <v>194</v>
       </c>
       <c r="C196">
-        <v>1.37290972241593E-16</v>
+        <v>-1.647987302177967E-17</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2544,7 +2544,7 @@
         <v>195</v>
       </c>
       <c r="C197">
-        <v>1.100310319048146E-16</v>
+        <v>1.757853122323164E-16</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2555,7 +2555,7 @@
         <v>196</v>
       </c>
       <c r="C198">
-        <v>-1.09907123085102E-16</v>
+        <v>-7.950815931560366E-17</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2566,7 +2566,7 @@
         <v>197</v>
       </c>
       <c r="C199">
-        <v>0</v>
+        <v>-1.116005436211746E-16</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2577,7 +2577,7 @@
         <v>198</v>
       </c>
       <c r="C200">
-        <v>2.701212269735314E-17</v>
+        <v>-1.156482317317871E-18</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2588,7 +2588,7 @@
         <v>199</v>
       </c>
       <c r="C201">
-        <v>0</v>
+        <v>1.431146867680866E-16</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2599,7 +2599,7 @@
         <v>200</v>
       </c>
       <c r="C202">
-        <v>-5.501551595240731E-17</v>
+        <v>-1.655215316661203E-17</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2610,7 +2610,29 @@
         <v>201</v>
       </c>
       <c r="C203">
-        <v>-2.72599403367784E-17</v>
+        <v>9.454242944073599E-17</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>202</v>
+      </c>
+      <c r="C204">
+        <v>9.483155002006545E-17</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>203</v>
+      </c>
+      <c r="C205">
+        <v>1.61907524424502E-17</v>
       </c>
     </row>
   </sheetData>

--- a/data/slided/월_환율.xlsx
+++ b/data/slided/월_환율.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>기간</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>특징값</t>
   </si>
@@ -377,2261 +374,1646 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C205"/>
+  <dimension ref="A1:B205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
         <v>-2.538388336331687E-16</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
         <v>-1.413799632921098E-16</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
         <v>-2.032517672686159E-16</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
         <v>-2.081668171172169E-16</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
         <v>-2.078776965378874E-16</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
         <v>-2.711951034110409E-16</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
         <v>-1.452830911130576E-16</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
         <v>-9.707223450986883E-17</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
         <v>1.66244333114444E-17</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11">
         <v>3.223694459523566E-17</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
         <v>9.8879238130678E-17</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13">
         <v>-4.972873964466847E-17</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12</v>
-      </c>
-      <c r="C14">
         <v>-4.85722573273506E-17</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13</v>
-      </c>
-      <c r="C15">
         <v>-2.382353573674815E-16</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14</v>
-      </c>
-      <c r="C16">
         <v>-1.838806884535416E-16</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15</v>
-      </c>
-      <c r="C17">
         <v>-1.387778780781446E-17</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16</v>
-      </c>
-      <c r="C18">
         <v>1.202741610010586E-16</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17</v>
-      </c>
-      <c r="C19">
         <v>-3.23815048849004E-17</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18</v>
-      </c>
-      <c r="C20">
         <v>-5.782411586589357E-19</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19</v>
-      </c>
-      <c r="C21">
         <v>5.059610138265688E-17</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20</v>
-      </c>
-      <c r="C22">
         <v>1.280442765705381E-16</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21</v>
-      </c>
-      <c r="C23">
         <v>3.671831357484242E-17</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22</v>
-      </c>
-      <c r="C24">
         <v>-5.522203065192836E-17</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23</v>
-      </c>
-      <c r="C25">
         <v>-1.481742969063523E-16</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>24</v>
-      </c>
-      <c r="C26">
         <v>-1.019150042136374E-16</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>25</v>
-      </c>
-      <c r="C27">
         <v>-5.551115123125783E-17</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>26</v>
-      </c>
-      <c r="C28">
         <v>9.830099697201907E-18</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>27</v>
-      </c>
-      <c r="C29">
         <v>-1.734723475976807E-17</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>28</v>
-      </c>
-      <c r="C30">
         <v>3.122502256758253E-17</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>29</v>
-      </c>
-      <c r="C31">
         <v>-1.966019939440381E-17</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>30</v>
-      </c>
-      <c r="C32">
         <v>-2.370788750501636E-17</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>31</v>
-      </c>
-      <c r="C33">
         <v>-2.185751579730777E-16</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>32</v>
-      </c>
-      <c r="C34">
         <v>-3.989863994746656E-17</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>33</v>
-      </c>
-      <c r="C35">
         <v>-6.129356281784719E-17</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>34</v>
-      </c>
-      <c r="C36">
         <v>1.355975517055204E-16</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>35</v>
-      </c>
-      <c r="C37">
         <v>9.916835871000747E-17</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>36</v>
-      </c>
-      <c r="C38">
         <v>1.491862189340054E-16</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>37</v>
-      </c>
-      <c r="C39">
         <v>1.796884400532643E-16</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>38</v>
-      </c>
-      <c r="C40">
         <v>2.49944740830325E-16</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>39</v>
-      </c>
-      <c r="C41">
         <v>1.907111621402002E-16</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>40</v>
-      </c>
-      <c r="C42">
         <v>2.038300084272748E-17</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>41</v>
-      </c>
-      <c r="C43">
         <v>3.006854025026465E-17</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>42</v>
-      </c>
-      <c r="C44">
         <v>6.071532165918825E-17</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>43</v>
-      </c>
-      <c r="C45">
         <v>1.833024472948826E-16</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>44</v>
-      </c>
-      <c r="C46">
         <v>1.323449451880639E-16</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>45</v>
-      </c>
-      <c r="C47">
         <v>1.627748861624904E-16</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>46</v>
-      </c>
-      <c r="C48">
         <v>-4.04768811061255E-17</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>47</v>
-      </c>
-      <c r="C49">
         <v>-1.119619443453364E-16</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>48</v>
-      </c>
-      <c r="C50">
         <v>-2.039745687169396E-16</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>49</v>
-      </c>
-      <c r="C51">
         <v>-2.148165904417946E-16</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>50</v>
-      </c>
-      <c r="C52">
         <v>-7.112366251504909E-17</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>51</v>
-      </c>
-      <c r="C53">
         <v>-7.054542135639015E-17</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>52</v>
-      </c>
-      <c r="C54">
         <v>-2.012279232133096E-16</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>53</v>
-      </c>
-      <c r="C55">
         <v>6.129356281784719E-17</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>54</v>
-      </c>
-      <c r="C56">
         <v>-2.312964634635743E-18</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>55</v>
-      </c>
-      <c r="C57">
         <v>-2.891205793294679E-18</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>56</v>
-      </c>
-      <c r="C58">
         <v>-5.898059818321144E-17</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>57</v>
-      </c>
-      <c r="C59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>58</v>
-      </c>
-      <c r="C60">
         <v>-1.896631000401309E-16</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>59</v>
-      </c>
-      <c r="C61">
         <v>5.551115123125783E-17</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>60</v>
-      </c>
-      <c r="C62">
         <v>6.938893903907228E-18</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>61</v>
-      </c>
-      <c r="C63">
         <v>4.85722573273506E-17</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>62</v>
-      </c>
-      <c r="C64">
         <v>1.110223024625157E-16</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>63</v>
-      </c>
-      <c r="C65">
         <v>3.469446951953614E-17</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>64</v>
-      </c>
-      <c r="C66">
         <v>4.192248400277284E-17</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>65</v>
-      </c>
-      <c r="C67">
         <v>-5.117434254131581E-17</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>66</v>
-      </c>
-      <c r="C68">
         <v>4.481368979606751E-17</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>67</v>
-      </c>
-      <c r="C69">
         <v>-3.180326372624146E-17</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>68</v>
-      </c>
-      <c r="C70">
         <v>1.127570259384925E-16</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>69</v>
-      </c>
-      <c r="C71">
         <v>9.136210306811184E-17</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>70</v>
-      </c>
-      <c r="C72">
         <v>-2.42861286636753E-17</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>71</v>
-      </c>
-      <c r="C73">
         <v>1.399343603954624E-16</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>72</v>
-      </c>
-      <c r="C74">
         <v>1.61907524424502E-17</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>73</v>
-      </c>
-      <c r="C75">
         <v>1.757853122323164E-16</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>74</v>
-      </c>
-      <c r="C76">
         <v>6.187180397650612E-17</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>75</v>
-      </c>
-      <c r="C77">
         <v>2.382353573674815E-16</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>76</v>
-      </c>
-      <c r="C78">
         <v>2.717733445696998E-16</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>77</v>
-      </c>
-      <c r="C79">
         <v>8.384496800554568E-17</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>78</v>
-      </c>
-      <c r="C80">
         <v>-6.3028286293824E-17</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>79</v>
-      </c>
-      <c r="C81">
         <v>-1.123233450694983E-16</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>80</v>
-      </c>
-      <c r="C82">
         <v>-1.144917494144693E-16</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>81</v>
-      </c>
-      <c r="C83">
         <v>-3.229476871110156E-16</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>82</v>
-      </c>
-      <c r="C84">
         <v>-1.474514954580286E-16</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>83</v>
-      </c>
-      <c r="C85">
         <v>-4.958417935500373E-17</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>84</v>
-      </c>
-      <c r="C86">
         <v>6.649773324577761E-17</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>85</v>
-      </c>
-      <c r="C87">
         <v>-1.139135082558103E-16</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>86</v>
-      </c>
-      <c r="C88">
         <v>9.656627349604226E-17</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>87</v>
-      </c>
-      <c r="C89">
         <v>1.734723475976807E-18</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>88</v>
-      </c>
-      <c r="C90">
         <v>-1.653769713764556E-16</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>89</v>
-      </c>
-      <c r="C91">
         <v>-8.326672684688674E-17</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>90</v>
-      </c>
-      <c r="C92">
         <v>-8.442320916420461E-17</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>91</v>
-      </c>
-      <c r="C93">
         <v>-3.295974604355933E-17</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>92</v>
-      </c>
-      <c r="C94">
         <v>-8.384496800554568E-17</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>93</v>
-      </c>
-      <c r="C95">
         <v>-6.707597440443654E-17</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>94</v>
-      </c>
-      <c r="C96">
         <v>1.629917265969875E-17</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>95</v>
-      </c>
-      <c r="C97">
         <v>2.0643209364124E-16</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>96</v>
-      </c>
-      <c r="C98">
         <v>8.384496800554568E-17</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>97</v>
-      </c>
-      <c r="C99">
         <v>-1.199850404217292E-16</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>98</v>
-      </c>
-      <c r="C100">
         <v>6.938893903907228E-17</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>99</v>
-      </c>
-      <c r="C101">
         <v>-1.590163186312073E-17</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>100</v>
-      </c>
-      <c r="C102">
         <v>-1.850371707708594E-17</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>101</v>
-      </c>
-      <c r="C103">
         <v>-1.023486850826316E-16</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>102</v>
-      </c>
-      <c r="C104">
         <v>-5.290906601729262E-17</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>103</v>
-      </c>
-      <c r="C105">
         <v>8.319444670205438E-17</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>104</v>
-      </c>
-      <c r="C106">
         <v>-3.28151857538946E-17</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>105</v>
-      </c>
-      <c r="C107">
         <v>3.353798720221827E-17</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>106</v>
-      </c>
-      <c r="C108">
         <v>4.915049848600953E-17</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>107</v>
-      </c>
-      <c r="C109">
         <v>-5.030698080332741E-17</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>108</v>
-      </c>
-      <c r="C110">
         <v>-1.734723475976807E-17</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>109</v>
-      </c>
-      <c r="C111">
         <v>-8.413408858487514E-17</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>110</v>
-      </c>
-      <c r="C112">
         <v>-1.850371707708594E-17</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>111</v>
-      </c>
-      <c r="C113">
         <v>-8.323058677447055E-17</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>112</v>
-      </c>
-      <c r="C114">
         <v>-1.5757071573456E-17</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>113</v>
-      </c>
-      <c r="C115">
         <v>-6.852157730108388E-17</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>114</v>
-      </c>
-      <c r="C116">
         <v>-6.823245672175442E-17</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>115</v>
-      </c>
-      <c r="C117">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>116</v>
-      </c>
-      <c r="C118">
         <v>1.301042606982605E-18</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>117</v>
-      </c>
-      <c r="C119">
         <v>-1.52655665885959E-16</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>118</v>
-      </c>
-      <c r="C120">
         <v>-1.549686305205948E-16</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>119</v>
-      </c>
-      <c r="C121">
         <v>-1.046616497172674E-16</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>120</v>
-      </c>
-      <c r="C122">
         <v>-1.017704439239727E-16</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>121</v>
-      </c>
-      <c r="C123">
         <v>6.938893903907228E-17</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>122</v>
-      </c>
-      <c r="C124">
         <v>-6.996718019773122E-17</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>123</v>
-      </c>
-      <c r="C125">
         <v>1.581489568932189E-16</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>124</v>
-      </c>
-      <c r="C126">
         <v>3.411622836087721E-17</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>125</v>
-      </c>
-      <c r="C127">
         <v>-8.095376221225099E-17</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>126</v>
-      </c>
-      <c r="C128">
         <v>4.510281037539698E-17</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>127</v>
-      </c>
-      <c r="C129">
         <v>8.26884856882278E-17</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>128</v>
-      </c>
-      <c r="C130">
         <v>8.297760626755728E-17</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>129</v>
-      </c>
-      <c r="C131">
         <v>8.066464163292153E-17</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>130</v>
-      </c>
-      <c r="C132">
         <v>-8.962737959213504E-18</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>131</v>
-      </c>
-      <c r="C133">
         <v>8.673617379884035E-18</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>132</v>
-      </c>
-      <c r="C134">
         <v>2.833381677428785E-17</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>133</v>
-      </c>
-      <c r="C135">
         <v>6.418476861114186E-17</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>134</v>
-      </c>
-      <c r="C136">
         <v>2.833381677428785E-17</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>135</v>
-      </c>
-      <c r="C137">
         <v>9.251858538542971E-18</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>136</v>
-      </c>
-      <c r="C138">
         <v>2.388135985261404E-16</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>137</v>
-      </c>
-      <c r="C139">
         <v>2.116362640691705E-16</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>138</v>
-      </c>
-      <c r="C140">
         <v>1.676899360110913E-17</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>139</v>
-      </c>
-      <c r="C141">
         <v>-1.966019939440381E-17</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>140</v>
-      </c>
-      <c r="C142">
         <v>1.179611963664229E-16</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>141</v>
-      </c>
-      <c r="C143">
         <v>8.557969148152249E-17</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>142</v>
-      </c>
-      <c r="C144">
         <v>4.98732999343332E-17</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>143</v>
-      </c>
-      <c r="C145">
         <v>-1.590163186312073E-17</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>144</v>
-      </c>
-      <c r="C146">
         <v>6.649773324577761E-17</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>145</v>
-      </c>
-      <c r="C147">
         <v>-9.772275581336014E-17</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>146</v>
-      </c>
-      <c r="C148">
         <v>-1.815677238189058E-16</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>147</v>
-      </c>
-      <c r="C149">
         <v>-1.152145508627929E-16</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>148</v>
-      </c>
-      <c r="C150">
         <v>-1.642204890591377E-16</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151">
-        <v>149</v>
-      </c>
-      <c r="C151">
         <v>-9.71445146547012E-17</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152">
-        <v>150</v>
-      </c>
-      <c r="C152">
         <v>1.647987302177967E-17</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153">
-        <v>151</v>
-      </c>
-      <c r="C153">
         <v>-9.656627349604226E-17</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154">
-        <v>152</v>
-      </c>
-      <c r="C154">
         <v>8.037552105359207E-17</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155">
-        <v>153</v>
-      </c>
-      <c r="C155">
         <v>8.153200337090993E-17</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156">
-        <v>154</v>
-      </c>
-      <c r="C156">
         <v>1.807003620809174E-16</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157">
-        <v>155</v>
-      </c>
-      <c r="C157">
         <v>-8.26884856882278E-17</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>156</v>
-      </c>
-      <c r="C158">
         <v>-1.324172253328963E-16</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159">
-        <v>157</v>
-      </c>
-      <c r="C159">
         <v>1.590163186312073E-18</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160">
-        <v>158</v>
-      </c>
-      <c r="C160">
         <v>-2.638225286381394E-16</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161">
-        <v>159</v>
-      </c>
-      <c r="C161">
         <v>-2.318747046222332E-16</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162">
-        <v>160</v>
-      </c>
-      <c r="C162">
         <v>-1.156482317317871E-16</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>161</v>
-      </c>
-      <c r="C163">
         <v>6.707597440443654E-17</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164">
-        <v>162</v>
-      </c>
-      <c r="C164">
         <v>4.972873964466847E-17</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165">
-        <v>163</v>
-      </c>
-      <c r="C165">
         <v>-3.353798720221827E-17</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166">
-        <v>164</v>
-      </c>
-      <c r="C166">
         <v>3.411622836087721E-17</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167">
-        <v>165</v>
-      </c>
-      <c r="C167">
         <v>8.189340409507177E-17</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168">
-        <v>166</v>
-      </c>
-      <c r="C168">
         <v>1.835915678742121E-16</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169">
-        <v>167</v>
-      </c>
-      <c r="C169">
         <v>1.011922027653138E-16</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170">
-        <v>168</v>
-      </c>
-      <c r="C170">
         <v>-5.088522196198634E-17</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171">
-        <v>169</v>
-      </c>
-      <c r="C171">
         <v>-1.202741610010586E-16</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172">
-        <v>170</v>
-      </c>
-      <c r="C172">
         <v>-1.61907524424502E-17</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173">
-        <v>171</v>
-      </c>
-      <c r="C173">
         <v>1.734723475976807E-17</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174">
-        <v>172</v>
-      </c>
-      <c r="C174">
         <v>2.599194008171916E-16</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175">
-        <v>173</v>
-      </c>
-      <c r="C175">
         <v>7.025630077706069E-17</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176">
-        <v>174</v>
-      </c>
-      <c r="C176">
         <v>-1.043725291379379E-16</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177">
-        <v>175</v>
-      </c>
-      <c r="C177">
         <v>-1.647987302177967E-17</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>176</v>
-      </c>
-      <c r="C178">
         <v>-1.046616497172674E-16</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179">
-        <v>177</v>
-      </c>
-      <c r="C179">
         <v>-1.763635533909754E-17</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180">
-        <v>178</v>
-      </c>
-      <c r="C180">
         <v>5.088522196198634E-17</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181">
-        <v>179</v>
-      </c>
-      <c r="C181">
         <v>5.290906601729262E-17</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182">
-        <v>180</v>
-      </c>
-      <c r="C182">
         <v>-1.408017221334509E-16</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183">
-        <v>181</v>
-      </c>
-      <c r="C183">
         <v>-1.535230276239474E-16</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184">
-        <v>182</v>
-      </c>
-      <c r="C184">
         <v>-5.059610138265688E-17</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185">
-        <v>183</v>
-      </c>
-      <c r="C185">
         <v>-8.529057090219301E-17</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186">
-        <v>184</v>
-      </c>
-      <c r="C186">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187">
-        <v>185</v>
-      </c>
-      <c r="C187">
         <v>-5.030698080332741E-17</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188">
-        <v>186</v>
-      </c>
-      <c r="C188">
         <v>3.411622836087721E-17</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189">
-        <v>187</v>
-      </c>
-      <c r="C189">
         <v>-8.26884856882278E-17</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190">
-        <v>188</v>
-      </c>
-      <c r="C190">
         <v>-3.353798720221827E-17</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191">
-        <v>189</v>
-      </c>
-      <c r="C191">
         <v>-1.312607430155784E-16</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192">
-        <v>190</v>
-      </c>
-      <c r="C192">
         <v>-1.298874202637634E-16</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193">
-        <v>191</v>
-      </c>
-      <c r="C193">
         <v>-1.335737076502141E-16</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194">
-        <v>192</v>
-      </c>
-      <c r="C194">
         <v>-1.148531501386311E-16</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195">
-        <v>193</v>
-      </c>
-      <c r="C195">
         <v>2.417048043194351E-16</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196">
-        <v>194</v>
-      </c>
-      <c r="C196">
         <v>-1.647987302177967E-17</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197">
-        <v>195</v>
-      </c>
-      <c r="C197">
         <v>1.757853122323164E-16</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198">
-        <v>196</v>
-      </c>
-      <c r="C198">
         <v>-7.950815931560366E-17</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199">
-        <v>197</v>
-      </c>
-      <c r="C199">
         <v>-1.116005436211746E-16</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200">
-        <v>198</v>
-      </c>
-      <c r="C200">
         <v>-1.156482317317871E-18</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:2">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201">
-        <v>199</v>
-      </c>
-      <c r="C201">
         <v>1.431146867680866E-16</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202">
-        <v>200</v>
-      </c>
-      <c r="C202">
         <v>-1.655215316661203E-17</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203">
-        <v>201</v>
-      </c>
-      <c r="C203">
         <v>9.454242944073599E-17</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204">
-        <v>202</v>
-      </c>
-      <c r="C204">
         <v>9.483155002006545E-17</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205">
-        <v>203</v>
-      </c>
-      <c r="C205">
         <v>1.61907524424502E-17</v>
       </c>
     </row>

--- a/data/slided/월_환율.xlsx
+++ b/data/slided/월_환율.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B205"/>
+  <dimension ref="A1:B217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2017,6 +2017,102 @@
         <v>1.61907524424502E-17</v>
       </c>
     </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>3.469446951953614E-17</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>7.065055611250996E-17</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>-1.165734175856414E-16</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>-1.541976423090495E-18</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>-2.255140518769849E-17</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>-8.425799740458777E-17</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>3.353798720221827E-17</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>5.204170427930421E-17</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>1.156482317317871E-18</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>-1.0321604682062E-16</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
